--- a/SkyCode - Space Needle/Documentação/Modelagens/Modelagem-Masang.xlsx
+++ b/SkyCode - Space Needle/Documentação/Modelagens/Modelagem-Masang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Rayssa\Projeto_Senai---2020\SkyCode - Space Needle\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Rayssa\Projeto_Senai---2020\SkyCode - Space Needle\Documentação\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>RJ</t>
   </si>
@@ -149,9 +149,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Hemocentros</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -227,15 +224,6 @@
     <t>dataHora</t>
   </si>
   <si>
-    <t>idUsuario</t>
-  </si>
-  <si>
-    <t>idHemocentros</t>
-  </si>
-  <si>
-    <t>Doacoes</t>
-  </si>
-  <si>
     <t>AB-</t>
   </si>
   <si>
@@ -243,13 +231,79 @@
   </si>
   <si>
     <t>tipoSanguineo</t>
+  </si>
+  <si>
+    <t>campanhas</t>
+  </si>
+  <si>
+    <t>doacoes</t>
+  </si>
+  <si>
+    <t>hemocentros</t>
+  </si>
+  <si>
+    <t>título</t>
+  </si>
+  <si>
+    <t>urlRedirect</t>
+  </si>
+  <si>
+    <t>urlImagem</t>
+  </si>
+  <si>
+    <t>pedidos</t>
+  </si>
+  <si>
+    <t>efetuadoMatch</t>
+  </si>
+  <si>
+    <t>dataSolicitacao</t>
+  </si>
+  <si>
+    <t>dataMatch</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>Doação de sangue 2020</t>
+  </si>
+  <si>
+    <t>Campanha de Doação de Sangue 2020</t>
+  </si>
+  <si>
+    <t>Mais Sangue, Mais Vidas</t>
+  </si>
+  <si>
+    <t>28.02.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.04.20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.07.20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:21:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:04:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:30:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +372,22 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +451,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,9 +701,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,10 +749,50 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -923,24 +1076,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:H33"/>
+  <dimension ref="D3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
         <v>40</v>
       </c>
@@ -957,7 +1110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2">
         <v>1</v>
       </c>
@@ -974,7 +1127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
         <v>2</v>
       </c>
@@ -991,7 +1144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <v>3</v>
       </c>
@@ -1008,7 +1161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1025,7 +1178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <v>-220804436</v>
       </c>
@@ -1042,7 +1195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="6">
         <v>-235438781</v>
       </c>
@@ -1059,7 +1212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" s="6">
         <v>-234781784</v>
       </c>
@@ -1076,7 +1229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1090,8 +1243,15 @@
         <v>12</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1105,9 +1265,24 @@
         <v>8</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="28" t="s">
+      <c r="I13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1120,8 +1295,23 @@
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="49">
+        <v>1</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1135,208 +1325,288 @@
         <v>0</v>
       </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="38" t="s">
+      <c r="I15" s="49">
+        <v>2</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="I16" s="49">
+        <v>3</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="H19" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="32">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="33">
-        <v>1</v>
-      </c>
-      <c r="E20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="G20" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16">
         <v>2</v>
       </c>
       <c r="E21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="G21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" s="16">
         <v>3</v>
       </c>
       <c r="E22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="G22" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>52</v>
-      </c>
       <c r="H22" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="F23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="31" t="s">
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="F24" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="F25" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="F26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H28" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-      <c r="F24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-      <c r="F25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
-      <c r="F26" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="27" t="s">
+      <c r="J29" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="24">
+      <c r="E30" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="44">
         <v>1</v>
       </c>
-      <c r="E31" s="23">
+      <c r="I30" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="44">
         <v>2</v>
       </c>
-      <c r="F31" s="23">
-        <v>1</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="24">
+      <c r="I31" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="23">
         <v>2</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="44">
         <v>3</v>
       </c>
-      <c r="F32" s="23">
+      <c r="I32" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="23">
         <v>3</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="24">
-        <v>3</v>
-      </c>
-      <c r="E33" s="23">
-        <v>1</v>
-      </c>
-      <c r="F33" s="23">
-        <v>2</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>63</v>
-      </c>
+      <c r="E33" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="I12:M12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" display="https://www.google.com/search?q=hemocentro&amp;oq=hemocentro&amp;aqs=chrome..69i57j0l7.4186j0j7&amp;sourceid=chrome&amp;ie=UTF-8&amp;sxsrf=ALeKk02dcDaYYmPBDPckRvxq-jfK9w9aQA:1592400516797&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=-23521194,-46649614,4517&amp;tbm=lcl&amp;rldimm=16426914426281090645&amp;lqi=CgpoZW1vY2VudHJvWhgKCmhlbW9jZW50cm8iCmhlbW9jZW50cm8&amp;ved=2ahUKEwjl6pKZ-ojqAhV3ILkGHZegD9kQvS4wAHoECA0QIA&amp;rldoc=1&amp;tbs=lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:2&amp;rlst=f"/>
     <hyperlink ref="F20" r:id="rId2"/>
     <hyperlink ref="F21" r:id="rId3"/>
     <hyperlink ref="F22" r:id="rId4"/>
+    <hyperlink ref="K30" r:id="rId5" display="https://www.gov.br/pt-br/noticias/saude-e-vigilancia-sanitaria/2020/06/ministerio-da-saude-lanca-nova-campanha-de-doacao-de-sangue-2020/doacao.jpg/@@images/aebacd62-1e6d-463e-88f3-296a739607c6.jpeg"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>